--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Swaps.xlsx
@@ -18,9 +18,6 @@
     <sheet name="3M (2)" sheetId="22" r:id="rId9"/>
     <sheet name="6M (2)" sheetId="23" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$18</definedName>
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="126">
   <si>
     <t>Currency</t>
   </si>
@@ -433,6 +430,9 @@
   <si>
     <t>OIS</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +448,7 @@
     <numFmt numFmtId="170" formatCode="General_)"/>
     <numFmt numFmtId="171" formatCode="ddd\,\ d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1099,22 +1099,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1409,7 +1393,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="14" customWidth="1"/>
@@ -1420,13 +1404,13 @@
     <col min="7" max="16384" width="8" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16"/>
       <c r="B2" s="109" t="s">
         <v>55</v>
@@ -1435,14 +1419,14 @@
       <c r="D2" s="110"/>
       <c r="E2" s="111"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="26"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="26"/>
       <c r="C4" s="36" t="s">
@@ -1451,7 +1435,7 @@
       <c r="D4" s="37"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="26"/>
       <c r="C5" s="36" t="s">
@@ -1462,7 +1446,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="26"/>
       <c r="C6" s="36" t="s">
@@ -1473,7 +1457,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="26"/>
       <c r="C7" s="36" t="s">
@@ -1484,19 +1468,18 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="26"/>
       <c r="C8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="38" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="38" t="s">
+        <v>125</v>
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="26"/>
       <c r="C9" s="36" t="s">
@@ -1507,15 +1490,15 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="109" t="s">
         <v>74</v>
       </c>
@@ -1526,13 +1509,13 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="32"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="33"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="32"/>
       <c r="C14" s="40" t="s">
         <v>0</v>
@@ -1545,7 +1528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="40" t="s">
         <v>82</v>
@@ -1555,7 +1538,7 @@
       </c>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="32"/>
       <c r="C16" s="40" t="s">
         <v>83</v>
@@ -1565,7 +1548,7 @@
       </c>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75">
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="32"/>
       <c r="C17" s="40" t="s">
         <v>84</v>
@@ -1575,7 +1558,7 @@
       </c>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75">
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="32"/>
       <c r="C18" s="40" t="s">
         <v>1</v>
@@ -1585,7 +1568,7 @@
       </c>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75">
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="32"/>
       <c r="C19" s="40" t="s">
         <v>61</v>
@@ -1595,7 +1578,7 @@
       </c>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75">
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="107"/>
       <c r="B20" s="32"/>
       <c r="C20" s="40" t="s">
@@ -1607,7 +1590,7 @@
       </c>
       <c r="E20" s="33"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75">
+    <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="32"/>
       <c r="C21" s="40" t="s">
         <v>103</v>
@@ -1618,7 +1601,7 @@
       </c>
       <c r="E21" s="33"/>
     </row>
-    <row r="22" spans="1:5" ht="13.5" thickBot="1">
+    <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="34"/>
       <c r="C22" s="35"/>
       <c r="D22" s="35"/>
@@ -1659,7 +1642,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -1681,7 +1664,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1697,7 +1680,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1723,7 +1706,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -1750,17 +1733,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC6M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1785,7 +1768,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1801,7 +1784,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -1858,7 +1841,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -1913,7 +1896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -1968,7 +1951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -2023,7 +2006,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -2078,7 +2061,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -2124,7 +2107,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -2170,7 +2153,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -2216,7 +2199,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -2262,7 +2245,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -2308,7 +2291,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -2354,7 +2337,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -2400,7 +2383,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -2446,7 +2429,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -2492,7 +2475,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -2538,7 +2521,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -2584,7 +2567,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -2630,7 +2613,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -2676,7 +2659,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -2722,7 +2705,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -2768,7 +2751,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -2814,7 +2797,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -2860,7 +2843,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -2906,7 +2889,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -2952,7 +2935,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -2998,7 +2981,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -3044,7 +3027,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -3090,7 +3073,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -3136,7 +3119,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -3182,7 +3165,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -3228,7 +3211,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -3274,7 +3257,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -3320,7 +3303,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -3366,7 +3349,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -3412,7 +3395,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -3458,7 +3441,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -3504,7 +3487,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -3550,7 +3533,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3588,7 +3571,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -3610,7 +3593,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3626,7 +3609,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3650,7 +3633,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -3677,17 +3660,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YCSTDRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3712,7 +3695,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3728,7 +3711,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -3781,7 +3764,7 @@
       <c r="Q6" s="71"/>
       <c r="R6" s="72"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -3836,7 +3819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -3891,7 +3874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -3942,7 +3925,7 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="50"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -3997,7 +3980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -4043,7 +4026,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -4089,7 +4072,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -4135,7 +4118,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -4181,7 +4164,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -4227,7 +4210,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -4273,7 +4256,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -4319,7 +4302,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -4365,7 +4348,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -4411,7 +4394,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -4457,7 +4440,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -4503,7 +4486,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -4549,7 +4532,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -4595,7 +4578,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -4641,7 +4624,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -4687,7 +4670,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -4733,7 +4716,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -4779,7 +4762,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -4825,7 +4808,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -4871,7 +4854,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -4917,7 +4900,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -4963,7 +4946,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -5009,7 +4992,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -5055,7 +5038,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -5101,7 +5084,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -5147,7 +5130,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -5193,7 +5176,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -5239,7 +5222,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -5285,7 +5268,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -5331,7 +5314,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -5377,7 +5360,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -5423,7 +5406,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -5469,7 +5452,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -5507,7 +5490,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -5528,7 +5511,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -5544,7 +5527,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -5566,7 +5549,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>75</v>
@@ -5595,17 +5578,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YCRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>55</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -5630,7 +5613,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -5646,7 +5629,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90"/>
       <c r="C6" s="91" t="s">
@@ -5697,7 +5680,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90"/>
       <c r="C7" s="91" t="s">
@@ -5748,7 +5731,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91" t="s">
@@ -5799,7 +5782,7 @@
         <v>41508</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90"/>
       <c r="C9" s="91" t="s">
@@ -5850,7 +5833,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91" t="s">
@@ -5901,7 +5884,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90"/>
       <c r="C11" s="91" t="s">
@@ -5952,7 +5935,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91" t="s">
@@ -6003,7 +5986,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90"/>
       <c r="C13" s="91" t="s">
@@ -6054,7 +6037,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -6105,7 +6088,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91" t="s">
@@ -6156,7 +6139,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90"/>
       <c r="C16" s="91" t="s">
@@ -6207,7 +6190,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90"/>
       <c r="C17" s="91" t="s">
@@ -6258,7 +6241,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90"/>
       <c r="C18" s="91" t="s">
@@ -6309,7 +6292,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91" t="s">
@@ -6360,7 +6343,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
@@ -6411,7 +6394,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91" t="s">
@@ -6462,7 +6445,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91" t="s">
@@ -6513,7 +6496,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91" t="s">
@@ -6564,7 +6547,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90"/>
       <c r="C24" s="91" t="s">
@@ -6615,7 +6598,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90"/>
       <c r="C25" s="91" t="s">
@@ -6666,7 +6649,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90"/>
       <c r="C26" s="91" t="s">
@@ -6717,7 +6700,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90"/>
       <c r="C27" s="91" t="s">
@@ -6768,7 +6751,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90"/>
       <c r="C28" s="91" t="s">
@@ -6819,7 +6802,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90"/>
       <c r="C29" s="91" t="s">
@@ -6870,7 +6853,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91" t="s">
@@ -6921,7 +6904,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91" t="s">
@@ -6972,7 +6955,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91" t="s">
@@ -7023,7 +7006,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91" t="s">
@@ -7068,7 +7051,7 @@
       <c r="P33" s="106"/>
       <c r="Q33" s="106"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90"/>
       <c r="C34" s="91" t="s">
@@ -7113,7 +7096,7 @@
       <c r="P34" s="106"/>
       <c r="Q34" s="106"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91" t="s">
@@ -7158,7 +7141,7 @@
       <c r="P35" s="106"/>
       <c r="Q35" s="106"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91" t="s">
@@ -7203,7 +7186,7 @@
       <c r="P36" s="106"/>
       <c r="Q36" s="106"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90"/>
       <c r="C37" s="91" t="s">
@@ -7248,7 +7231,7 @@
       <c r="P37" s="106"/>
       <c r="Q37" s="106"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90"/>
       <c r="C38" s="91" t="s">
@@ -7293,7 +7276,7 @@
       <c r="P38" s="106"/>
       <c r="Q38" s="106"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="90"/>
       <c r="C39" s="91" t="s">
@@ -7338,7 +7321,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="106"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="90"/>
       <c r="C40" s="91" t="s">
@@ -7383,7 +7366,7 @@
       <c r="P40" s="106"/>
       <c r="Q40" s="106"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="90"/>
       <c r="C41" s="91" t="s">
@@ -7428,7 +7411,7 @@
       <c r="P41" s="106"/>
       <c r="Q41" s="106"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="90"/>
       <c r="C42" s="91" t="s">
@@ -7473,7 +7456,7 @@
       <c r="P42" s="106"/>
       <c r="Q42" s="106"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="90"/>
       <c r="C43" s="91" t="s">
@@ -7518,7 +7501,7 @@
       <c r="P43" s="106"/>
       <c r="Q43" s="106"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="90"/>
       <c r="C44" s="91" t="s">
@@ -7563,7 +7546,7 @@
       <c r="P44" s="106"/>
       <c r="Q44" s="106"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="90"/>
       <c r="C45" s="91" t="s">
@@ -7608,7 +7591,7 @@
       <c r="P45" s="106"/>
       <c r="Q45" s="106"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="90"/>
       <c r="C46" s="91" t="s">
@@ -7653,7 +7636,7 @@
       <c r="P46" s="106"/>
       <c r="Q46" s="106"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="90"/>
       <c r="C47" s="91" t="s">
@@ -7698,7 +7681,7 @@
       <c r="P47" s="106"/>
       <c r="Q47" s="106"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="90"/>
       <c r="C48" s="91" t="s">
@@ -7743,7 +7726,7 @@
       <c r="P48" s="106"/>
       <c r="Q48" s="106"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="90"/>
       <c r="C49" s="91" t="s">
@@ -7788,7 +7771,7 @@
       <c r="P49" s="106"/>
       <c r="Q49" s="106"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="90"/>
       <c r="C50" s="91" t="s">
@@ -7833,7 +7816,7 @@
       <c r="P50" s="106"/>
       <c r="Q50" s="106"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="90"/>
       <c r="C51" s="91" t="s">
@@ -7878,7 +7861,7 @@
       <c r="P51" s="106"/>
       <c r="Q51" s="106"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="90"/>
       <c r="C52" s="91" t="s">
@@ -7923,7 +7906,7 @@
       <c r="P52" s="106"/>
       <c r="Q52" s="106"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="90"/>
       <c r="C53" s="91" t="s">
@@ -7968,7 +7951,7 @@
       <c r="P53" s="106"/>
       <c r="Q53" s="106"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="90"/>
       <c r="C54" s="91" t="s">
@@ -8019,7 +8002,7 @@
         <v>51349</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="90"/>
       <c r="C55" s="91" t="s">
@@ -8070,7 +8053,7 @@
         <v>52446</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91" t="s">
@@ -8121,7 +8104,7 @@
         <v>54273</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="90"/>
       <c r="C57" s="91" t="s">
@@ -8172,7 +8155,7 @@
         <v>56097</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="90"/>
       <c r="C58" s="91" t="s">
@@ -8223,7 +8206,7 @@
         <v>57923</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="90"/>
       <c r="C59" s="91" t="s">
@@ -8274,7 +8257,7 @@
         <v>59749</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="96"/>
       <c r="C60" s="96"/>
@@ -8292,7 +8275,7 @@
       <c r="P60" s="106"/>
       <c r="Q60" s="106"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="99">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
@@ -8345,7 +8328,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="99">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
@@ -8398,7 +8381,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="99">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
@@ -8451,7 +8434,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="99">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
@@ -8504,7 +8487,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="99">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
@@ -8557,7 +8540,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="99">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
@@ -8610,7 +8593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="99">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
@@ -8663,7 +8646,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="99">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
@@ -8716,7 +8699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="99">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
@@ -8769,7 +8752,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="99">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
@@ -8822,7 +8805,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="99">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
@@ -8875,7 +8858,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="99">
         <f>_xll.qlECBdate(E72,,Trigger)</f>
@@ -8928,7 +8911,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="99">
         <f>_xll.qlECBdate(E73,,Trigger)</f>
@@ -8981,7 +8964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="99">
         <f>_xll.qlECBdate(E74,,Trigger)</f>
@@ -9034,7 +9017,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="78"/>
       <c r="B75" s="99">
         <f>_xll.qlECBdate(E75,,Trigger)</f>
@@ -9087,7 +9070,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="99">
         <f>_xll.qlECBdate(E76,,Trigger)</f>
@@ -9140,7 +9123,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="99">
         <f>_xll.qlECBdate(E77,,Trigger)</f>
@@ -9193,7 +9176,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="99" t="e">
         <f>_xll.qlECBdate(E78,,Trigger)</f>
@@ -9246,7 +9229,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="78"/>
       <c r="B79" s="99" t="e">
         <f>_xll.qlECBdate(E79,,Trigger)</f>
@@ -9299,7 +9282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="78"/>
       <c r="B80" s="99" t="e">
         <f>_xll.qlECBdate(E80,,Trigger)</f>
@@ -9352,7 +9335,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="78"/>
       <c r="B81" s="99" t="e">
         <f>_xll.qlECBdate(E81,,Trigger)</f>
@@ -9405,7 +9388,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="78"/>
       <c r="B82" s="99" t="e">
         <f>_xll.qlECBdate(E82,,Trigger)</f>
@@ -9458,7 +9441,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="78"/>
       <c r="B83" s="99" t="e">
         <f>_xll.qlECBdate(E83,,Trigger)</f>
@@ -9511,7 +9494,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="78"/>
       <c r="B84" s="99" t="e">
         <f>_xll.qlECBdate(E84,,Trigger)</f>
@@ -9564,7 +9547,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="78"/>
       <c r="B85" s="99" t="e">
         <f>_xll.qlECBdate(E85,,Trigger)</f>
@@ -9617,7 +9600,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="78"/>
       <c r="B86" s="99" t="e">
         <f>_xll.qlECBdate(E86,,Trigger)</f>
@@ -9667,7 +9650,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="78"/>
       <c r="B87" s="99" t="e">
         <f>_xll.qlECBdate(E87,,Trigger)</f>
@@ -9717,7 +9700,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="78"/>
       <c r="B88" s="99" t="e">
         <f>_xll.qlECBdate(E88,,Trigger)</f>
@@ -9767,7 +9750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="78"/>
       <c r="B89" s="99" t="e">
         <f>_xll.qlECBdate(E89,,Trigger)</f>
@@ -9817,7 +9800,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="78"/>
       <c r="B90" s="99" t="e">
         <f>_xll.qlECBdate(E90,,Trigger)</f>
@@ -9867,7 +9850,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="78"/>
       <c r="B91" s="99" t="e">
         <f>_xll.qlECBdate(E91,,Trigger)</f>
@@ -9917,7 +9900,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="78"/>
       <c r="B92" s="99" t="e">
         <f>_xll.qlECBdate(E92,,Trigger)</f>
@@ -9967,7 +9950,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="78"/>
       <c r="B93" s="99" t="e">
         <f>_xll.qlECBdate(E93,,Trigger)</f>
@@ -10017,7 +10000,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="78"/>
       <c r="B94" s="99" t="e">
         <f>_xll.qlECBdate(E94,,Trigger)</f>
@@ -10067,7 +10050,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="78"/>
       <c r="B95" s="99" t="e">
         <f>_xll.qlECBdate(E95,,Trigger)</f>
@@ -10117,7 +10100,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="78"/>
       <c r="B96" s="96"/>
       <c r="C96" s="96"/>
@@ -10133,7 +10116,7 @@
       <c r="M96" s="98"/>
       <c r="N96" s="81"/>
     </row>
-    <row r="97" spans="1:14" ht="12" thickBot="1">
+    <row r="97" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="100"/>
       <c r="B97" s="101"/>
       <c r="C97" s="101"/>
@@ -10174,7 +10157,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="77" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="77" bestFit="1" customWidth="1"/>
@@ -10193,7 +10176,7 @@
     <col min="18" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="73"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -10209,7 +10192,7 @@
       <c r="M1" s="74"/>
       <c r="N1" s="76"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="78"/>
       <c r="B2" s="79"/>
       <c r="C2" s="79"/>
@@ -10233,7 +10216,7 @@
       <c r="M2" s="79"/>
       <c r="N2" s="81"/>
     </row>
-    <row r="3" spans="1:17" ht="36" customHeight="1">
+    <row r="3" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78"/>
       <c r="B3" s="82" t="s">
         <v>75</v>
@@ -10262,17 +10245,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YCONRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="84" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>55</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="81"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -10297,7 +10280,7 @@
       </c>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="79"/>
       <c r="C5" s="79"/>
@@ -10313,7 +10296,7 @@
       <c r="M5" s="79"/>
       <c r="N5" s="81"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="78"/>
       <c r="B6" s="90"/>
       <c r="C6" s="91" t="s">
@@ -10364,7 +10347,7 @@
         <v>41494</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="78"/>
       <c r="B7" s="90"/>
       <c r="C7" s="91" t="s">
@@ -10416,7 +10399,7 @@
         <v>41501</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="78"/>
       <c r="B8" s="90"/>
       <c r="C8" s="91" t="s">
@@ -10468,7 +10451,7 @@
         <v>41508</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="78"/>
       <c r="B9" s="90"/>
       <c r="C9" s="91" t="s">
@@ -10520,7 +10503,7 @@
         <v>41519</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91" t="s">
@@ -10572,7 +10555,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="90"/>
       <c r="C11" s="91" t="s">
@@ -10624,7 +10607,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="90"/>
       <c r="C12" s="91" t="s">
@@ -10676,7 +10659,7 @@
         <v>41610</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="90"/>
       <c r="C13" s="91" t="s">
@@ -10728,7 +10711,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -10780,7 +10763,7 @@
         <v>41673</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91" t="s">
@@ -10832,7 +10815,7 @@
         <v>41701</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="90"/>
       <c r="C16" s="91" t="s">
@@ -10884,7 +10867,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="90"/>
       <c r="C17" s="91" t="s">
@@ -10936,7 +10919,7 @@
         <v>41761</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="90"/>
       <c r="C18" s="91" t="s">
@@ -10988,7 +10971,7 @@
         <v>41792</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="90"/>
       <c r="C19" s="91" t="s">
@@ -11040,7 +11023,7 @@
         <v>41821</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="90"/>
       <c r="C20" s="91" t="s">
@@ -11092,7 +11075,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="90"/>
       <c r="C21" s="91" t="s">
@@ -11144,7 +11127,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="90"/>
       <c r="C22" s="91" t="s">
@@ -11196,7 +11179,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
       <c r="B23" s="90"/>
       <c r="C23" s="91" t="s">
@@ -11248,7 +11231,7 @@
         <v>41946</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="78"/>
       <c r="B24" s="90"/>
       <c r="C24" s="91" t="s">
@@ -11300,7 +11283,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="78"/>
       <c r="B25" s="90"/>
       <c r="C25" s="91" t="s">
@@ -11352,7 +11335,7 @@
         <v>42006</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="78"/>
       <c r="B26" s="90"/>
       <c r="C26" s="91" t="s">
@@ -11404,7 +11387,7 @@
         <v>42037</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="78"/>
       <c r="B27" s="90"/>
       <c r="C27" s="91" t="s">
@@ -11456,7 +11439,7 @@
         <v>42065</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="78"/>
       <c r="B28" s="90"/>
       <c r="C28" s="91" t="s">
@@ -11508,7 +11491,7 @@
         <v>42095</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="78"/>
       <c r="B29" s="90"/>
       <c r="C29" s="91" t="s">
@@ -11560,7 +11543,7 @@
         <v>42128</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="78"/>
       <c r="B30" s="90"/>
       <c r="C30" s="91" t="s">
@@ -11612,7 +11595,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="78"/>
       <c r="B31" s="90"/>
       <c r="C31" s="91" t="s">
@@ -11664,7 +11647,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="90"/>
       <c r="C32" s="91" t="s">
@@ -11716,7 +11699,7 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="78"/>
       <c r="B33" s="90"/>
       <c r="C33" s="91" t="s">
@@ -11768,7 +11751,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="90"/>
       <c r="C34" s="91" t="s">
@@ -11820,7 +11803,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
       <c r="B35" s="90"/>
       <c r="C35" s="91" t="s">
@@ -11872,7 +11855,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="90"/>
       <c r="C36" s="91" t="s">
@@ -11924,7 +11907,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
       <c r="B37" s="90"/>
       <c r="C37" s="91" t="s">
@@ -11976,7 +11959,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="90"/>
       <c r="C38" s="91" t="s">
@@ -12022,7 +12005,7 @@
       <c r="P38" s="106"/>
       <c r="Q38" s="106"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
       <c r="B39" s="90"/>
       <c r="C39" s="91" t="s">
@@ -12068,7 +12051,7 @@
       <c r="P39" s="106"/>
       <c r="Q39" s="106"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="90"/>
       <c r="C40" s="91" t="s">
@@ -12114,7 +12097,7 @@
       <c r="P40" s="106"/>
       <c r="Q40" s="106"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
       <c r="B41" s="90"/>
       <c r="C41" s="91" t="s">
@@ -12160,7 +12143,7 @@
       <c r="P41" s="106"/>
       <c r="Q41" s="106"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="90"/>
       <c r="C42" s="91" t="s">
@@ -12206,7 +12189,7 @@
       <c r="P42" s="106"/>
       <c r="Q42" s="106"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
       <c r="B43" s="90"/>
       <c r="C43" s="91" t="s">
@@ -12252,7 +12235,7 @@
       <c r="P43" s="106"/>
       <c r="Q43" s="106"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="90"/>
       <c r="C44" s="91" t="s">
@@ -12298,7 +12281,7 @@
       <c r="P44" s="106"/>
       <c r="Q44" s="106"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
       <c r="B45" s="90"/>
       <c r="C45" s="91" t="s">
@@ -12344,7 +12327,7 @@
       <c r="P45" s="106"/>
       <c r="Q45" s="106"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="90"/>
       <c r="C46" s="91" t="s">
@@ -12390,7 +12373,7 @@
       <c r="P46" s="106"/>
       <c r="Q46" s="106"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
       <c r="B47" s="90"/>
       <c r="C47" s="91" t="s">
@@ -12436,7 +12419,7 @@
       <c r="P47" s="106"/>
       <c r="Q47" s="106"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
       <c r="B48" s="90"/>
       <c r="C48" s="91" t="s">
@@ -12482,7 +12465,7 @@
       <c r="P48" s="106"/>
       <c r="Q48" s="106"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
       <c r="B49" s="90"/>
       <c r="C49" s="91" t="s">
@@ -12528,7 +12511,7 @@
       <c r="P49" s="106"/>
       <c r="Q49" s="106"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
       <c r="B50" s="90"/>
       <c r="C50" s="91" t="s">
@@ -12574,7 +12557,7 @@
       <c r="P50" s="106"/>
       <c r="Q50" s="106"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
       <c r="B51" s="90"/>
       <c r="C51" s="91" t="s">
@@ -12620,7 +12603,7 @@
       <c r="P51" s="106"/>
       <c r="Q51" s="106"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
       <c r="B52" s="90"/>
       <c r="C52" s="91" t="s">
@@ -12666,7 +12649,7 @@
       <c r="P52" s="106"/>
       <c r="Q52" s="106"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
       <c r="B53" s="90"/>
       <c r="C53" s="91" t="s">
@@ -12712,7 +12695,7 @@
       <c r="P53" s="106"/>
       <c r="Q53" s="106"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
       <c r="B54" s="90"/>
       <c r="C54" s="91" t="s">
@@ -12758,7 +12741,7 @@
       <c r="P54" s="106"/>
       <c r="Q54" s="106"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
       <c r="B55" s="90"/>
       <c r="C55" s="91" t="s">
@@ -12804,7 +12787,7 @@
       <c r="P55" s="106"/>
       <c r="Q55" s="106"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
       <c r="B56" s="90"/>
       <c r="C56" s="91" t="s">
@@ -12850,7 +12833,7 @@
       <c r="P56" s="106"/>
       <c r="Q56" s="106"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
       <c r="B57" s="90"/>
       <c r="C57" s="91" t="s">
@@ -12896,7 +12879,7 @@
       <c r="P57" s="106"/>
       <c r="Q57" s="106"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
       <c r="B58" s="90"/>
       <c r="C58" s="91" t="s">
@@ -12942,7 +12925,7 @@
       <c r="P58" s="106"/>
       <c r="Q58" s="106"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
       <c r="B59" s="90"/>
       <c r="C59" s="91" t="s">
@@ -12994,7 +12977,7 @@
         <v>59749</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
       <c r="B60" s="96"/>
       <c r="C60" s="96"/>
@@ -13012,7 +12995,7 @@
       <c r="P60" s="106"/>
       <c r="Q60" s="106"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
       <c r="B61" s="99">
         <f>_xll.qlECBdate(E61,,Trigger)</f>
@@ -13065,7 +13048,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
       <c r="B62" s="99">
         <f>_xll.qlECBdate(E62,,Trigger)</f>
@@ -13118,7 +13101,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
       <c r="B63" s="99">
         <f>_xll.qlECBdate(E63,,Trigger)</f>
@@ -13171,7 +13154,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
       <c r="B64" s="99">
         <f>_xll.qlECBdate(E64,,Trigger)</f>
@@ -13224,7 +13207,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
       <c r="B65" s="99">
         <f>_xll.qlECBdate(E65,,Trigger)</f>
@@ -13277,7 +13260,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
       <c r="B66" s="99">
         <f>_xll.qlECBdate(E66,,Trigger)</f>
@@ -13330,7 +13313,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
       <c r="B67" s="99">
         <f>_xll.qlECBdate(E67,,Trigger)</f>
@@ -13383,7 +13366,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
       <c r="B68" s="99">
         <f>_xll.qlECBdate(E68,,Trigger)</f>
@@ -13436,7 +13419,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="78"/>
       <c r="B69" s="99">
         <f>_xll.qlECBdate(E69,,Trigger)</f>
@@ -13489,7 +13472,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="78"/>
       <c r="B70" s="99">
         <f>_xll.qlECBdate(E70,,Trigger)</f>
@@ -13542,7 +13525,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="78"/>
       <c r="B71" s="99">
         <f>_xll.qlECBdate(E71,,Trigger)</f>
@@ -13595,7 +13578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="78"/>
       <c r="B72" s="99">
         <f>_xll.qlECBdate(E72,,Trigger)</f>
@@ -13648,7 +13631,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="78"/>
       <c r="B73" s="99">
         <f>_xll.qlECBdate(E73,,Trigger)</f>
@@ -13701,7 +13684,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="78"/>
       <c r="B74" s="99">
         <f>_xll.qlECBdate(E74,,Trigger)</f>
@@ -13754,7 +13737,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="78"/>
       <c r="B75" s="99">
         <f>_xll.qlECBdate(E75,,Trigger)</f>
@@ -13807,7 +13790,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="78"/>
       <c r="B76" s="99">
         <f>_xll.qlECBdate(E76,,Trigger)</f>
@@ -13860,7 +13843,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="78"/>
       <c r="B77" s="99">
         <f>_xll.qlECBdate(E77,,Trigger)</f>
@@ -13913,7 +13896,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="78"/>
       <c r="B78" s="99" t="e">
         <f>_xll.qlECBdate(E78,,Trigger)</f>
@@ -13966,7 +13949,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="78"/>
       <c r="B79" s="99" t="e">
         <f>_xll.qlECBdate(E79,,Trigger)</f>
@@ -14019,7 +14002,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="78"/>
       <c r="B80" s="99" t="e">
         <f>_xll.qlECBdate(E80,,Trigger)</f>
@@ -14072,7 +14055,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="78"/>
       <c r="B81" s="99" t="e">
         <f>_xll.qlECBdate(E81,,Trigger)</f>
@@ -14125,7 +14108,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="78"/>
       <c r="B82" s="99" t="e">
         <f>_xll.qlECBdate(E82,,Trigger)</f>
@@ -14178,7 +14161,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="78"/>
       <c r="B83" s="99" t="e">
         <f>_xll.qlECBdate(E83,,Trigger)</f>
@@ -14231,7 +14214,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="78"/>
       <c r="B84" s="99" t="e">
         <f>_xll.qlECBdate(E84,,Trigger)</f>
@@ -14284,7 +14267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="78"/>
       <c r="B85" s="99" t="e">
         <f>_xll.qlECBdate(E85,,Trigger)</f>
@@ -14337,7 +14320,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="78"/>
       <c r="B86" s="99" t="e">
         <f>_xll.qlECBdate(E86,,Trigger)</f>
@@ -14390,7 +14373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="78"/>
       <c r="B87" s="99" t="e">
         <f>_xll.qlECBdate(E87,,Trigger)</f>
@@ -14443,7 +14426,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="78"/>
       <c r="B88" s="99" t="e">
         <f>_xll.qlECBdate(E88,,Trigger)</f>
@@ -14496,7 +14479,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="78"/>
       <c r="B89" s="99" t="e">
         <f>_xll.qlECBdate(E89,,Trigger)</f>
@@ -14549,7 +14532,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="78"/>
       <c r="B90" s="99" t="e">
         <f>_xll.qlECBdate(E90,,Trigger)</f>
@@ -14602,7 +14585,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="78"/>
       <c r="B91" s="99" t="e">
         <f>_xll.qlECBdate(E91,,Trigger)</f>
@@ -14655,7 +14638,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="78"/>
       <c r="B92" s="99" t="e">
         <f>_xll.qlECBdate(E92,,Trigger)</f>
@@ -14708,7 +14691,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="78"/>
       <c r="B93" s="99" t="e">
         <f>_xll.qlECBdate(E93,,Trigger)</f>
@@ -14761,7 +14744,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="78"/>
       <c r="B94" s="99" t="e">
         <f>_xll.qlECBdate(E94,,Trigger)</f>
@@ -14814,7 +14797,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="78"/>
       <c r="B95" s="99" t="e">
         <f>_xll.qlECBdate(E95,,Trigger)</f>
@@ -14867,7 +14850,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="12" thickBot="1">
+    <row r="96" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="100"/>
       <c r="B96" s="101"/>
       <c r="C96" s="101"/>
@@ -14916,7 +14899,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -14935,7 +14918,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -14951,7 +14934,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -14975,7 +14958,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -15004,17 +14987,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC1MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15039,7 +15022,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15055,7 +15038,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -15100,7 +15083,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -15145,7 +15128,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -15190,7 +15173,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -15235,7 +15218,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -15280,7 +15263,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -15325,7 +15308,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -15370,7 +15353,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -15415,7 +15398,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -15460,7 +15443,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -15505,7 +15488,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -15550,7 +15533,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -15566,7 +15549,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -15607,7 +15590,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -15630,7 +15613,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -15646,7 +15629,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -15670,7 +15653,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -15697,17 +15680,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC3MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -15732,7 +15715,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15748,7 +15731,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -15805,7 +15788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -15860,7 +15843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -15915,7 +15898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -15970,7 +15953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -16025,7 +16008,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -16071,7 +16054,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -16117,7 +16100,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -16163,7 +16146,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -16209,7 +16192,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -16255,7 +16238,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -16301,7 +16284,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -16347,7 +16330,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -16393,7 +16376,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -16439,7 +16422,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -16485,7 +16468,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -16531,7 +16514,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -16577,7 +16560,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -16623,7 +16606,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -16669,7 +16652,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -16715,7 +16698,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -16761,7 +16744,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -16807,7 +16790,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -16853,7 +16836,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -16899,7 +16882,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -16945,7 +16928,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -16991,7 +16974,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -17037,7 +17020,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -17083,7 +17066,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -17129,7 +17112,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -17175,7 +17158,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -17221,7 +17204,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -17267,7 +17250,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -17313,7 +17296,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -17359,7 +17342,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -17405,7 +17388,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -17451,7 +17434,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -17497,7 +17480,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -17513,7 +17496,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>76</v>
@@ -17558,7 +17541,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>76</v>
@@ -17603,7 +17586,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>76</v>
@@ -17648,7 +17631,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -17693,7 +17676,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>76</v>
@@ -17738,7 +17721,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>76</v>
@@ -17783,7 +17766,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>76</v>
@@ -17828,7 +17811,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -17875,7 +17858,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -17897,7 +17880,7 @@
     <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -17913,7 +17896,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -17937,7 +17920,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -17964,17 +17947,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC6MRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -17999,7 +17982,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1">
+    <row r="5" spans="1:18" s="57" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18015,7 +17998,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -18072,7 +18055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -18127,7 +18110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -18182,7 +18165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -18237,7 +18220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickBot="1">
+    <row r="10" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -18292,7 +18275,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -18338,7 +18321,7 @@
       </c>
       <c r="N11" s="20"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -18384,7 +18367,7 @@
       </c>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -18430,7 +18413,7 @@
       </c>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -18476,7 +18459,7 @@
       </c>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -18522,7 +18505,7 @@
       </c>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -18568,7 +18551,7 @@
       </c>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -18614,7 +18597,7 @@
       </c>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -18660,7 +18643,7 @@
       </c>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -18706,7 +18689,7 @@
       </c>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -18752,7 +18735,7 @@
       </c>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -18798,7 +18781,7 @@
       </c>
       <c r="N21" s="20"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -18844,7 +18827,7 @@
       </c>
       <c r="N22" s="20"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -18890,7 +18873,7 @@
       </c>
       <c r="N23" s="20"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -18936,7 +18919,7 @@
       </c>
       <c r="N24" s="20"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -18982,7 +18965,7 @@
       </c>
       <c r="N25" s="20"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -19028,7 +19011,7 @@
       </c>
       <c r="N26" s="20"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -19074,7 +19057,7 @@
       </c>
       <c r="N27" s="20"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -19120,7 +19103,7 @@
       </c>
       <c r="N28" s="20"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -19166,7 +19149,7 @@
       </c>
       <c r="N29" s="20"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -19212,7 +19195,7 @@
       </c>
       <c r="N30" s="20"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -19258,7 +19241,7 @@
       </c>
       <c r="N31" s="20"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -19304,7 +19287,7 @@
       </c>
       <c r="N32" s="20"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -19350,7 +19333,7 @@
       </c>
       <c r="N33" s="20"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -19396,7 +19379,7 @@
       </c>
       <c r="N34" s="20"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -19442,7 +19425,7 @@
       </c>
       <c r="N35" s="20"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -19488,7 +19471,7 @@
       </c>
       <c r="N36" s="20"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -19534,7 +19517,7 @@
       </c>
       <c r="N37" s="20"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -19580,7 +19563,7 @@
       </c>
       <c r="N38" s="20"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -19626,7 +19609,7 @@
       </c>
       <c r="N39" s="20"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -19672,7 +19655,7 @@
       </c>
       <c r="N40" s="20"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -19718,7 +19701,7 @@
       </c>
       <c r="N41" s="20"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -19764,7 +19747,7 @@
       </c>
       <c r="N42" s="20"/>
     </row>
-    <row r="43" spans="1:14" ht="13.5" thickBot="1">
+    <row r="43" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -19802,7 +19785,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -19821,7 +19804,7 @@
     <col min="15" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -19837,7 +19820,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -19863,7 +19846,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1">
+    <row r="3" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -19892,17 +19875,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC1M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>12</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -19927,7 +19910,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -19943,7 +19926,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -19988,7 +19971,7 @@
       </c>
       <c r="N6" s="58"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -20033,7 +20016,7 @@
       </c>
       <c r="N7" s="58"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -20078,7 +20061,7 @@
       </c>
       <c r="N8" s="58"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -20123,7 +20106,7 @@
       </c>
       <c r="N9" s="58"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -20168,7 +20151,7 @@
       </c>
       <c r="N10" s="58"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -20213,7 +20196,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -20258,7 +20241,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -20303,7 +20286,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -20348,7 +20331,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -20393,7 +20376,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -20438,7 +20421,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -20454,7 +20437,7 @@
       <c r="M17" s="63"/>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
+    <row r="18" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -20495,7 +20478,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="57" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="57" bestFit="1" customWidth="1"/>
@@ -20518,7 +20501,7 @@
     <col min="19" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="18"/>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -20534,7 +20517,7 @@
       <c r="M1" s="19"/>
       <c r="N1" s="56"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -20560,7 +20543,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="58"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="42" t="s">
         <v>75</v>
@@ -20587,17 +20570,17 @@
         <f>K2&amp;"_Swaps.xml"</f>
         <v>USD_YC3M-MxRH_Swaps.xml</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="45" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>45</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="58"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -20622,7 +20605,7 @@
       </c>
       <c r="N4" s="58"/>
     </row>
-    <row r="5" spans="1:18" ht="12" thickBot="1">
+    <row r="5" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -20638,7 +20621,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="58"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="7" t="s">
         <v>76</v>
@@ -20695,7 +20678,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
         <v>76</v>
@@ -20750,7 +20733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="s">
         <v>76</v>
@@ -20805,7 +20788,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="s">
         <v>76</v>
@@ -20860,7 +20843,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
+    <row r="10" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
         <v>76</v>
@@ -20915,7 +20898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
         <v>76</v>
@@ -20961,7 +20944,7 @@
       </c>
       <c r="N11" s="58"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="s">
         <v>76</v>
@@ -21007,7 +20990,7 @@
       </c>
       <c r="N12" s="58"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="s">
         <v>76</v>
@@ -21053,7 +21036,7 @@
       </c>
       <c r="N13" s="58"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="s">
         <v>76</v>
@@ -21099,7 +21082,7 @@
       </c>
       <c r="N14" s="58"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
         <v>76</v>
@@ -21145,7 +21128,7 @@
       </c>
       <c r="N15" s="58"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
         <v>76</v>
@@ -21191,7 +21174,7 @@
       </c>
       <c r="N16" s="58"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="s">
         <v>76</v>
@@ -21237,7 +21220,7 @@
       </c>
       <c r="N17" s="58"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
         <v>76</v>
@@ -21283,7 +21266,7 @@
       </c>
       <c r="N18" s="58"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
         <v>76</v>
@@ -21329,7 +21312,7 @@
       </c>
       <c r="N19" s="58"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
@@ -21375,7 +21358,7 @@
       </c>
       <c r="N20" s="58"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
@@ -21421,7 +21404,7 @@
       </c>
       <c r="N21" s="58"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="s">
         <v>76</v>
@@ -21467,7 +21450,7 @@
       </c>
       <c r="N22" s="58"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="s">
         <v>76</v>
@@ -21513,7 +21496,7 @@
       </c>
       <c r="N23" s="58"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="s">
         <v>76</v>
@@ -21559,7 +21542,7 @@
       </c>
       <c r="N24" s="58"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="s">
         <v>76</v>
@@ -21605,7 +21588,7 @@
       </c>
       <c r="N25" s="58"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="s">
         <v>76</v>
@@ -21651,7 +21634,7 @@
       </c>
       <c r="N26" s="58"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="s">
         <v>76</v>
@@ -21697,7 +21680,7 @@
       </c>
       <c r="N27" s="58"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="s">
         <v>76</v>
@@ -21743,7 +21726,7 @@
       </c>
       <c r="N28" s="58"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="s">
         <v>76</v>
@@ -21789,7 +21772,7 @@
       </c>
       <c r="N29" s="58"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="s">
         <v>76</v>
@@ -21835,7 +21818,7 @@
       </c>
       <c r="N30" s="58"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="s">
         <v>76</v>
@@ -21881,7 +21864,7 @@
       </c>
       <c r="N31" s="58"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="s">
         <v>76</v>
@@ -21927,7 +21910,7 @@
       </c>
       <c r="N32" s="58"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -21973,7 +21956,7 @@
       </c>
       <c r="N33" s="58"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="s">
         <v>76</v>
@@ -22019,7 +22002,7 @@
       </c>
       <c r="N34" s="58"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="s">
         <v>76</v>
@@ -22065,7 +22048,7 @@
       </c>
       <c r="N35" s="58"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="s">
         <v>76</v>
@@ -22111,7 +22094,7 @@
       </c>
       <c r="N36" s="58"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="s">
         <v>76</v>
@@ -22157,7 +22140,7 @@
       </c>
       <c r="N37" s="58"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="s">
         <v>76</v>
@@ -22203,7 +22186,7 @@
       </c>
       <c r="N38" s="58"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="s">
         <v>76</v>
@@ -22249,7 +22232,7 @@
       </c>
       <c r="N39" s="58"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="7" t="s">
         <v>76</v>
@@ -22295,7 +22278,7 @@
       </c>
       <c r="N40" s="58"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="7" t="s">
         <v>76</v>
@@ -22341,7 +22324,7 @@
       </c>
       <c r="N41" s="58"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
         <v>76</v>
@@ -22387,7 +22370,7 @@
       </c>
       <c r="N42" s="58"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -22403,7 +22386,7 @@
       <c r="M43" s="2"/>
       <c r="N43" s="58"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="7" t="s">
         <v>76</v>
@@ -22448,7 +22431,7 @@
       <c r="P44" s="67"/>
       <c r="Q44" s="67"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="7" t="s">
         <v>76</v>
@@ -22493,7 +22476,7 @@
       <c r="P45" s="67"/>
       <c r="Q45" s="67"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="7" t="s">
         <v>76</v>
@@ -22538,7 +22521,7 @@
       <c r="P46" s="67"/>
       <c r="Q46" s="67"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="7" t="s">
         <v>76</v>
@@ -22583,7 +22566,7 @@
       <c r="P47" s="67"/>
       <c r="Q47" s="67"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="7" t="s">
         <v>76</v>
@@ -22628,7 +22611,7 @@
       <c r="P48" s="67"/>
       <c r="Q48" s="67"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="7" t="s">
         <v>76</v>
@@ -22673,7 +22656,7 @@
       <c r="P49" s="67"/>
       <c r="Q49" s="67"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="7" t="s">
         <v>76</v>
@@ -22718,7 +22701,7 @@
       <c r="P50" s="67"/>
       <c r="Q50" s="67"/>
     </row>
-    <row r="51" spans="1:17" ht="12" thickBot="1">
+    <row r="51" spans="1:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Swaps.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/USD_YCRH_Swaps.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="125">
   <si>
     <t>Currency</t>
   </si>
@@ -429,9 +429,6 @@
   </si>
   <si>
     <t>OIS</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1474,8 +1471,9 @@
       <c r="C8" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>125</v>
+      <c r="D8" s="38" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="28"/>
     </row>
@@ -1734,12 +1732,12 @@
         <v>USD_YC6M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -3661,12 +3659,12 @@
         <v>USD_YCSTDRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -5579,12 +5577,12 @@
         <v>USD_YCRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -8314,9 +8312,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -8367,9 +8365,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -8420,9 +8418,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -8473,9 +8471,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -8526,9 +8524,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -8579,9 +8577,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -8632,9 +8630,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -8685,9 +8683,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -8738,9 +8736,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -8791,9 +8789,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -8844,9 +8842,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -8897,9 +8895,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -8950,9 +8948,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -9003,9 +9001,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -9056,9 +9054,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M75" s="85" t="str">
+      <c r="M75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -9109,9 +9107,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M76" s="85" t="str">
+      <c r="M76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -9162,9 +9160,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M77" s="85" t="str">
+      <c r="M77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -9215,9 +9213,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="str">
+      <c r="M78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -9268,9 +9266,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="str">
+      <c r="M79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -9321,9 +9319,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="str">
+      <c r="M80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -9374,9 +9372,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="str">
+      <c r="M81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -9427,9 +9425,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="str">
+      <c r="M82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -9480,9 +9478,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="str">
+      <c r="M83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -9533,9 +9531,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="str">
+      <c r="M84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -9586,9 +9584,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="str">
+      <c r="M85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -10246,12 +10244,12 @@
         <v>USD_YCONRH_Swaps.xml</v>
       </c>
       <c r="L3" s="84" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="85" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(L4:L95),SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="81"/>
     </row>
@@ -13034,9 +13032,9 @@
         <f>_xll.qlDatedOISRateHelper(K61,B61,B62,J61,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M61" s="85" t="str">
+      <c r="M61" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L61)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N61" s="81"/>
       <c r="P61" s="106" t="e">
@@ -13087,9 +13085,9 @@
         <f>_xll.qlDatedOISRateHelper(K62,B62,B63,J62,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M62" s="85" t="str">
+      <c r="M62" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L62)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N62" s="81"/>
       <c r="P62" s="106" t="e">
@@ -13140,9 +13138,9 @@
         <f>_xll.qlDatedOISRateHelper(K63,B63,B64,J63,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M63" s="85" t="str">
+      <c r="M63" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L63)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N63" s="81"/>
       <c r="P63" s="106" t="e">
@@ -13193,9 +13191,9 @@
         <f>_xll.qlDatedOISRateHelper(K64,B64,B65,J64,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M64" s="85" t="str">
+      <c r="M64" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L64)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N64" s="81"/>
       <c r="P64" s="106" t="e">
@@ -13246,9 +13244,9 @@
         <f>_xll.qlDatedOISRateHelper(K65,B65,B66,J65,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M65" s="85" t="str">
+      <c r="M65" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L65)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N65" s="81"/>
       <c r="P65" s="106" t="e">
@@ -13299,9 +13297,9 @@
         <f>_xll.qlDatedOISRateHelper(K66,B66,B67,J66,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M66" s="85" t="str">
+      <c r="M66" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L66)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N66" s="81"/>
       <c r="P66" s="106" t="e">
@@ -13352,9 +13350,9 @@
         <f>_xll.qlDatedOISRateHelper(K67,B67,B68,J67,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M67" s="85" t="str">
+      <c r="M67" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L67)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N67" s="81"/>
       <c r="P67" s="106" t="e">
@@ -13405,9 +13403,9 @@
         <f>_xll.qlDatedOISRateHelper(K68,B68,B69,J68,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M68" s="85" t="str">
+      <c r="M68" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L68)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N68" s="81"/>
       <c r="P68" s="106" t="e">
@@ -13458,9 +13456,9 @@
         <f>_xll.qlDatedOISRateHelper(K69,B69,B70,J69,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M69" s="85" t="str">
+      <c r="M69" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L69)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N69" s="81"/>
       <c r="P69" s="106" t="e">
@@ -13511,9 +13509,9 @@
         <f>_xll.qlDatedOISRateHelper(K70,B70,B71,J70,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M70" s="85" t="str">
+      <c r="M70" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L70)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N70" s="81"/>
       <c r="P70" s="106" t="e">
@@ -13564,9 +13562,9 @@
         <f>_xll.qlDatedOISRateHelper(K71,B71,B72,J71,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M71" s="85" t="str">
+      <c r="M71" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L71)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N71" s="81"/>
       <c r="P71" s="106" t="e">
@@ -13617,9 +13615,9 @@
         <f>_xll.qlDatedOISRateHelper(K72,B72,B73,J72,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M72" s="85" t="str">
+      <c r="M72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N72" s="81"/>
       <c r="P72" s="106" t="e">
@@ -13670,9 +13668,9 @@
         <f>_xll.qlDatedOISRateHelper(K73,B73,B74,J73,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M73" s="85" t="str">
+      <c r="M73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N73" s="81"/>
       <c r="P73" s="106" t="e">
@@ -13723,9 +13721,9 @@
         <f>_xll.qlDatedOISRateHelper(K74,B74,B75,J74,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M74" s="85" t="str">
+      <c r="M74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N74" s="81"/>
       <c r="P74" s="106" t="e">
@@ -13776,9 +13774,9 @@
         <f>_xll.qlDatedOISRateHelper(K75,B75,B76,J75,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M75" s="85" t="str">
+      <c r="M75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N75" s="81"/>
       <c r="P75" s="106" t="e">
@@ -13829,9 +13827,9 @@
         <f>_xll.qlDatedOISRateHelper(K76,B76,B77,J76,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M76" s="85" t="str">
+      <c r="M76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N76" s="81"/>
       <c r="P76" s="106" t="e">
@@ -13882,9 +13880,9 @@
         <f>_xll.qlDatedOISRateHelper(K77,B77,B78,J77,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#NUM!</v>
       </c>
-      <c r="M77" s="85" t="str">
+      <c r="M77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N77" s="81"/>
       <c r="P77" s="106" t="e">
@@ -13935,9 +13933,9 @@
         <f>_xll.qlDatedOISRateHelper(K78,B78,B79,J78,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M78" s="85" t="str">
+      <c r="M78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N78" s="81"/>
       <c r="P78" s="106" t="e">
@@ -13988,9 +13986,9 @@
         <f>_xll.qlDatedOISRateHelper(K79,B79,B80,J79,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M79" s="85" t="str">
+      <c r="M79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N79" s="81"/>
       <c r="P79" s="106" t="e">
@@ -14041,9 +14039,9 @@
         <f>_xll.qlDatedOISRateHelper(K80,B80,B81,J80,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="85" t="str">
+      <c r="M80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N80" s="81"/>
       <c r="P80" s="106" t="e">
@@ -14094,9 +14092,9 @@
         <f>_xll.qlDatedOISRateHelper(K81,B81,B82,J81,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M81" s="85" t="str">
+      <c r="M81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N81" s="81"/>
       <c r="P81" s="106" t="e">
@@ -14147,9 +14145,9 @@
         <f>_xll.qlDatedOISRateHelper(K82,B82,B83,J82,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M82" s="85" t="str">
+      <c r="M82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N82" s="81"/>
       <c r="P82" s="106" t="e">
@@ -14200,9 +14198,9 @@
         <f>_xll.qlDatedOISRateHelper(K83,B83,B84,J83,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M83" s="85" t="str">
+      <c r="M83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N83" s="81"/>
       <c r="P83" s="106" t="e">
@@ -14253,9 +14251,9 @@
         <f>_xll.qlDatedOISRateHelper(K84,B84,B85,J84,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M84" s="85" t="str">
+      <c r="M84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N84" s="81"/>
       <c r="P84" s="106" t="e">
@@ -14306,9 +14304,9 @@
         <f>_xll.qlDatedOISRateHelper(K85,B85,B86,J85,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M85" s="85" t="str">
+      <c r="M85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N85" s="81"/>
       <c r="P85" s="106" t="e">
@@ -14359,9 +14357,9 @@
         <f>_xll.qlDatedOISRateHelper(K86,B86,B87,J86,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M86" s="85" t="str">
+      <c r="M86" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N86" s="81"/>
       <c r="P86" s="106" t="e">
@@ -14412,9 +14410,9 @@
         <f>_xll.qlDatedOISRateHelper(K87,B87,B88,J87,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M87" s="85" t="str">
+      <c r="M87" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N87" s="81"/>
       <c r="P87" s="106" t="e">
@@ -14465,9 +14463,9 @@
         <f>_xll.qlDatedOISRateHelper(K88,B88,B89,J88,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M88" s="85" t="str">
+      <c r="M88" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N88" s="81"/>
       <c r="P88" s="106" t="e">
@@ -14518,9 +14516,9 @@
         <f>_xll.qlDatedOISRateHelper(K89,B89,B90,J89,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M89" s="85" t="str">
+      <c r="M89" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N89" s="81"/>
       <c r="P89" s="106" t="e">
@@ -14571,9 +14569,9 @@
         <f>_xll.qlDatedOISRateHelper(K90,B90,B91,J90,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M90" s="85" t="str">
+      <c r="M90" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N90" s="81"/>
       <c r="P90" s="106" t="e">
@@ -14624,9 +14622,9 @@
         <f>_xll.qlDatedOISRateHelper(K91,B91,B92,J91,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M91" s="85" t="str">
+      <c r="M91" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N91" s="81"/>
       <c r="P91" s="106" t="e">
@@ -14677,9 +14675,9 @@
         <f>_xll.qlDatedOISRateHelper(K92,B92,B93,J92,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M92" s="85" t="str">
+      <c r="M92" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N92" s="81"/>
       <c r="P92" s="106" t="e">
@@ -14730,9 +14728,9 @@
         <f>_xll.qlDatedOISRateHelper(K93,B93,B94,J93,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M93" s="85" t="str">
+      <c r="M93" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N93" s="81"/>
       <c r="P93" s="106" t="e">
@@ -14783,9 +14781,9 @@
         <f>_xll.qlDatedOISRateHelper(K94,B94,B95,J94,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M94" s="85" t="str">
+      <c r="M94" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L94)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N94" s="81"/>
       <c r="P94" s="106" t="e">
@@ -14836,9 +14834,9 @@
         <f>_xll.qlDatedOISRateHelper(K95,B95,#REF!,J95,$L$4,Permanent,,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M95" s="85" t="str">
+      <c r="M95" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L95)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N95" s="81"/>
       <c r="P95" s="106" t="e">
@@ -14988,12 +14986,12 @@
         <v>USD_YC1MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -15681,12 +15679,12 @@
         <v>USD_YC3MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -17948,12 +17946,12 @@
         <v>USD_YC6MRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L42,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="20"/>
     </row>
@@ -19876,12 +19874,12 @@
         <v>USD_YC1M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L16,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
@@ -20571,12 +20569,12 @@
         <v>USD_YC3M-MxRH_Swaps.xml</v>
       </c>
       <c r="L3" s="45" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="47" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L50,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="47" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="58"/>
     </row>
